--- a/Tp3_2.0/Tabla de simulacion.xlsx
+++ b/Tp3_2.0/Tabla de simulacion.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,16 +534,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>1</v>
+        <v>99990</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.3124</v>
+        <v>0.6407</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6849</v>
+        <v>0.4907</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -551,30 +551,504 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.9196</v>
+        <v>0.3027</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.3299</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0</v>
+        <v>8623940</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0</v>
+        <v>29662</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>0.2966</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>99991</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.2744</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.7683</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>8623940</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>29662</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0.2966</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>99992</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.6029</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>8623940</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>29662</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0.2966</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>99993</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.0387</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.2029</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>8624200</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>29663</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0.2967</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>99994</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.9957</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>8624200</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>29663</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0.2966</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>99995</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.3198</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.7294</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>520</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>8624720</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>29664</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0.2967</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>99996</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.8038999999999999</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>8624720</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>29664</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0.2967</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>99997</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.8725000000000001</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>8624720</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>29664</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0.2966</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>99998</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.7543</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>8624720</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>29664</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0.2966</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>99999</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.6303</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.5222</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>8624720</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>29664</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0.2966</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>8624720</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>29664</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0.2966</v>
       </c>
     </row>
   </sheetData>
@@ -680,10 +1154,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.853</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
@@ -720,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2800</v>
+        <v>8624720</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>8</v>
+        <v>29664</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0.08</v>
+        <v>0.2966</v>
       </c>
     </row>
   </sheetData>
